--- a/Roster Template.xlsx
+++ b/Roster Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapdo\Desktop\studies\Project\roster creator\Roster-Creator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8363E9A-C688-4325-A792-C838389521AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2166D3AF-5758-491A-91CF-FFE99720C7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3828" yWindow="1896" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{1CEB6DB3-C821-4CC1-969E-63F683F42387}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1CEB6DB3-C821-4CC1-969E-63F683F42387}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62504D7A-B6C7-47D9-9BC9-70E98B84FEB6}">
   <dimension ref="B1:AL22"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
